--- a/Label.xlsx
+++ b/Label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="20490" windowHeight="6750"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="171">
   <si>
     <t>Group</t>
   </si>
@@ -497,37 +497,7 @@
     <t>Diễn giải</t>
   </si>
   <si>
-    <t>MiG</t>
-  </si>
-  <si>
-    <t>GePr</t>
-  </si>
-  <si>
-    <t>JoPr</t>
-  </si>
-  <si>
     <t>Ev</t>
-  </si>
-  <si>
-    <t>NwDr</t>
-  </si>
-  <si>
-    <t>EvFr</t>
-  </si>
-  <si>
-    <t>Gact</t>
-  </si>
-  <si>
-    <t>Cmpg</t>
-  </si>
-  <si>
-    <t>FTs</t>
-  </si>
-  <si>
-    <t>Ss</t>
-  </si>
-  <si>
-    <t>SdD</t>
   </si>
   <si>
     <t>Menu</t>
@@ -536,25 +506,7 @@
     <t>Bev</t>
   </si>
   <si>
-    <t>FdHy</t>
-  </si>
-  <si>
-    <t>FdD</t>
-  </si>
-  <si>
-    <t>FdPg</t>
-  </si>
-  <si>
-    <t>SpD</t>
-  </si>
-  <si>
     <t>Dst</t>
-  </si>
-  <si>
-    <t>ResHy</t>
-  </si>
-  <si>
-    <t>BrL</t>
   </si>
   <si>
     <t>Rec</t>
@@ -566,52 +518,106 @@
     <t>CS</t>
   </si>
   <si>
-    <t>WiGo</t>
-  </si>
-  <si>
-    <t>DeSr</t>
-  </si>
-  <si>
     <t>Corp</t>
-  </si>
-  <si>
-    <t>Own</t>
-  </si>
-  <si>
-    <t>DrT</t>
-  </si>
-  <si>
-    <t>DrHy</t>
-  </si>
-  <si>
-    <t>Orgin</t>
-  </si>
-  <si>
-    <t>DrPg</t>
-  </si>
-  <si>
-    <t>DrBook</t>
   </si>
   <si>
     <t>DJ</t>
   </si>
   <si>
-    <t>SpEv</t>
+    <t>Open</t>
   </si>
   <si>
-    <t>Sec</t>
+    <t>MG</t>
   </si>
   <si>
-    <t>BeerHy</t>
+    <t>Gpro</t>
   </si>
   <si>
-    <t>SpDec</t>
+    <t>Jpro</t>
   </si>
   <si>
-    <t>StoreHy</t>
+    <t>NDs</t>
   </si>
   <si>
-    <t>GrOpenning</t>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>Gac</t>
+  </si>
+  <si>
+    <t>Cpg</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>SSg</t>
+  </si>
+  <si>
+    <t>SDs</t>
+  </si>
+  <si>
+    <t>Fhy</t>
+  </si>
+  <si>
+    <t>FDg</t>
+  </si>
+  <si>
+    <t>SDr</t>
+  </si>
+  <si>
+    <t>Rhy</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Deli</t>
+  </si>
+  <si>
+    <t>Ow</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>Dhy</t>
+  </si>
+  <si>
+    <t>Org</t>
+  </si>
+  <si>
+    <t>DPg</t>
+  </si>
+  <si>
+    <t>DBk</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Serc</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>BeHy</t>
+  </si>
+  <si>
+    <t>Shy</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1125,8 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:E13"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1211,7 +1217,7 @@
     <row r="3" spans="1:26" ht="15.75" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1249,7 +1255,7 @@
     <row r="4" spans="1:26" ht="15.75" thickBot="1">
       <c r="A4" s="14"/>
       <c r="B4" s="11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -1287,7 +1293,7 @@
     <row r="5" spans="1:26" ht="15.75" thickBot="1">
       <c r="A5" s="14"/>
       <c r="B5" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>14</v>
@@ -1323,7 +1329,7 @@
     <row r="6" spans="1:26" ht="15.75" thickBot="1">
       <c r="A6" s="14"/>
       <c r="B6" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>16</v>
@@ -1361,7 +1367,7 @@
     <row r="7" spans="1:26" ht="15.75" thickBot="1">
       <c r="A7" s="14"/>
       <c r="B7" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -1399,7 +1405,7 @@
     <row r="8" spans="1:26" ht="15.75" thickBot="1">
       <c r="A8" s="14"/>
       <c r="B8" s="11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
@@ -1437,7 +1443,7 @@
     <row r="9" spans="1:26" ht="15.75" thickBot="1">
       <c r="A9" s="14"/>
       <c r="B9" s="11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
@@ -1475,7 +1481,7 @@
     <row r="10" spans="1:26" ht="15.75" thickBot="1">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
@@ -1515,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
@@ -1553,7 +1559,7 @@
     <row r="12" spans="1:26" ht="15.75" thickBot="1">
       <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>36</v>
@@ -1591,7 +1597,7 @@
     <row r="13" spans="1:26" ht="15.75" thickBot="1">
       <c r="A13" s="14"/>
       <c r="B13" s="11" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>39</v>
@@ -1629,7 +1635,7 @@
     <row r="14" spans="1:26" ht="15.75" thickBot="1">
       <c r="A14" s="14"/>
       <c r="B14" s="11" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>42</v>
@@ -1667,7 +1673,7 @@
     <row r="15" spans="1:26" ht="15.75" thickBot="1">
       <c r="A15" s="14"/>
       <c r="B15" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>45</v>
@@ -1705,7 +1711,7 @@
     <row r="16" spans="1:26" ht="15.75" thickBot="1">
       <c r="A16" s="14"/>
       <c r="B16" s="11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>48</v>
@@ -1743,7 +1749,7 @@
     <row r="17" spans="1:26" ht="15.75" thickBot="1">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>51</v>
@@ -1779,7 +1785,7 @@
     <row r="18" spans="1:26" ht="15.75" thickBot="1">
       <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>54</v>
@@ -1815,7 +1821,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>56</v>
@@ -1853,7 +1859,7 @@
     <row r="20" spans="1:26" ht="15.75" thickBot="1">
       <c r="A20" s="14"/>
       <c r="B20" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>59</v>
@@ -1891,7 +1897,7 @@
     <row r="21" spans="1:26" ht="15.75" thickBot="1">
       <c r="A21" s="15"/>
       <c r="B21" s="12" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
@@ -1931,7 +1937,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>66</v>
@@ -1969,7 +1975,7 @@
     <row r="23" spans="1:26" ht="15.75" thickBot="1">
       <c r="A23" s="14"/>
       <c r="B23" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>69</v>
@@ -2007,7 +2013,7 @@
     <row r="24" spans="1:26" ht="15.75" thickBot="1">
       <c r="A24" s="14"/>
       <c r="B24" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>72</v>
@@ -2045,7 +2051,7 @@
     <row r="25" spans="1:26" ht="15.75" thickBot="1">
       <c r="A25" s="14"/>
       <c r="B25" s="11" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>75</v>
@@ -2083,7 +2089,7 @@
     <row r="26" spans="1:26" ht="15.75" thickBot="1">
       <c r="A26" s="14"/>
       <c r="B26" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>78</v>
@@ -2121,7 +2127,7 @@
     <row r="27" spans="1:26" ht="15.75" thickBot="1">
       <c r="A27" s="14"/>
       <c r="B27" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>81</v>
@@ -2159,7 +2165,7 @@
     <row r="28" spans="1:26" ht="15.75" thickBot="1">
       <c r="A28" s="14"/>
       <c r="B28" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>84</v>
@@ -2197,7 +2203,7 @@
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="14"/>
       <c r="B29" s="11" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>87</v>
@@ -2235,7 +2241,7 @@
     <row r="30" spans="1:26" ht="15.75" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>90</v>
@@ -2275,7 +2281,7 @@
         <v>93</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -2313,7 +2319,7 @@
     <row r="32" spans="1:26" ht="15.75" thickBot="1">
       <c r="A32" s="14"/>
       <c r="B32" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>45</v>
@@ -2351,7 +2357,7 @@
     <row r="33" spans="1:26" ht="15.75" thickBot="1">
       <c r="A33" s="14"/>
       <c r="B33" s="11" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>97</v>
@@ -2389,7 +2395,7 @@
     <row r="34" spans="1:26" ht="15.75" thickBot="1">
       <c r="A34" s="14"/>
       <c r="B34" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>100</v>
@@ -2427,7 +2433,7 @@
     <row r="35" spans="1:26" ht="15.75" thickBot="1">
       <c r="A35" s="14"/>
       <c r="B35" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>103</v>
@@ -2465,7 +2471,7 @@
     <row r="36" spans="1:26" ht="15.75" thickBot="1">
       <c r="A36" s="15"/>
       <c r="B36" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>106</v>
@@ -2505,7 +2511,7 @@
         <v>109</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>110</v>
@@ -2543,7 +2549,7 @@
     <row r="38" spans="1:26" ht="15.75" thickBot="1">
       <c r="A38" s="14"/>
       <c r="B38" s="11" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>113</v>
@@ -2581,7 +2587,7 @@
     <row r="39" spans="1:26" ht="15.75" thickBot="1">
       <c r="A39" s="14"/>
       <c r="B39" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>116</v>
@@ -2619,7 +2625,7 @@
     <row r="40" spans="1:26" ht="15.75" thickBot="1">
       <c r="A40" s="14"/>
       <c r="B40" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>118</v>
@@ -2657,7 +2663,7 @@
     <row r="41" spans="1:26" ht="15.75" thickBot="1">
       <c r="A41" s="14"/>
       <c r="B41" s="11" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>59</v>
@@ -2695,7 +2701,7 @@
     <row r="42" spans="1:26" ht="15.75" thickBot="1">
       <c r="A42" s="15"/>
       <c r="B42" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>122</v>
@@ -2773,7 +2779,7 @@
     <row r="44" spans="1:26" ht="15.75" thickBot="1">
       <c r="A44" s="14"/>
       <c r="B44" s="11" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>59</v>
@@ -2811,7 +2817,7 @@
     <row r="45" spans="1:26" ht="15.75" thickBot="1">
       <c r="A45" s="15"/>
       <c r="B45" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>127</v>
